--- a/검수 데이터/천보중/raw_data/천보중_1_반편성A(능력)_명렬표_선택과목_결시생.xlsx
+++ b/검수 데이터/천보중/raw_data/천보중_1_반편성A(능력)_명렬표_선택과목_결시생.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\group_classification\검수 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\group_classification\검수 데이터\천보중\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6781ED6-4E27-4C19-B050-32A52BD89E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396BADD-865A-4A85-95C3-63C672A0E87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C6B408-A703-4B9D-9985-637D3750662A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C6B408-A703-4B9D-9985-637D3750662A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="336">
   <si>
     <t>성별</t>
   </si>
@@ -888,9 +888,6 @@
     <t>이현빈</t>
   </si>
   <si>
-    <t>이현춘</t>
-  </si>
-  <si>
     <t>전우현</t>
   </si>
   <si>
@@ -1073,6 +1070,18 @@
   </si>
   <si>
     <t>특수학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전출예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1814,8 +1823,8 @@
   <dimension ref="A1:P294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K289" sqref="K289"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I287" sqref="I287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1829,7 +1838,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1849,13 +1858,19 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1875,13 +1890,19 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1899,10 +1920,19 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1920,10 +1950,19 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1941,10 +1980,19 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1962,10 +2010,19 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -1985,10 +2042,19 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -2006,10 +2072,19 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -2029,10 +2104,19 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -2052,10 +2136,19 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -2075,10 +2168,19 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -2096,10 +2198,19 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -2119,10 +2230,19 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -2142,10 +2262,19 @@
         <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -2163,10 +2292,19 @@
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -2184,10 +2322,19 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -2205,13 +2352,19 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1</v>
       </c>
@@ -2229,10 +2382,19 @@
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -2250,10 +2412,19 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>1</v>
       </c>
@@ -2271,10 +2442,19 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>1</v>
       </c>
@@ -2292,10 +2472,19 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1</v>
       </c>
@@ -2313,10 +2502,19 @@
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1</v>
       </c>
@@ -2334,10 +2532,19 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -2355,10 +2562,19 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>1</v>
       </c>
@@ -2376,10 +2592,19 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>1</v>
       </c>
@@ -2399,10 +2624,19 @@
         <v>13</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -2420,10 +2654,19 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1</v>
       </c>
@@ -2441,10 +2684,19 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>1</v>
       </c>
@@ -2462,10 +2714,19 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1</v>
       </c>
@@ -2483,13 +2744,19 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1</v>
       </c>
@@ -2507,10 +2774,19 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1</v>
       </c>
@@ -2528,10 +2804,19 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1</v>
       </c>
@@ -2549,10 +2834,19 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1</v>
       </c>
@@ -2570,10 +2864,19 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>1</v>
       </c>
@@ -2593,10 +2896,19 @@
         <v>47</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>1</v>
       </c>
@@ -2614,10 +2926,19 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>1</v>
       </c>
@@ -2635,10 +2956,19 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1</v>
       </c>
@@ -2658,10 +2988,19 @@
         <v>17</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>1</v>
       </c>
@@ -2679,10 +3018,19 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>1</v>
       </c>
@@ -2700,13 +3048,19 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>1</v>
       </c>
@@ -2724,10 +3078,19 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>1</v>
       </c>
@@ -2745,10 +3108,19 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>1</v>
       </c>
@@ -2766,13 +3138,19 @@
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -2790,10 +3168,19 @@
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>1</v>
       </c>
@@ -2811,10 +3198,19 @@
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>1</v>
       </c>
@@ -2832,10 +3228,19 @@
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>1</v>
       </c>
@@ -2853,10 +3258,19 @@
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>1</v>
       </c>
@@ -2874,10 +3288,19 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>1</v>
       </c>
@@ -2895,10 +3318,19 @@
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>1</v>
       </c>
@@ -2916,10 +3348,19 @@
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>1</v>
       </c>
@@ -2937,10 +3378,19 @@
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>1</v>
       </c>
@@ -2948,7 +3398,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>3</v>
@@ -2958,10 +3408,19 @@
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>1</v>
       </c>
@@ -2981,10 +3440,19 @@
         <v>48</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>1</v>
       </c>
@@ -3002,10 +3470,19 @@
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>1</v>
       </c>
@@ -3023,10 +3500,19 @@
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>1</v>
       </c>
@@ -3044,10 +3530,19 @@
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>1</v>
       </c>
@@ -3065,10 +3560,19 @@
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>1</v>
       </c>
@@ -3086,10 +3590,19 @@
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>1</v>
       </c>
@@ -3109,10 +3622,19 @@
         <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>1</v>
       </c>
@@ -3130,10 +3652,19 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>1</v>
       </c>
@@ -3151,10 +3682,19 @@
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>1</v>
       </c>
@@ -3172,10 +3712,19 @@
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>1</v>
       </c>
@@ -3193,10 +3742,19 @@
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>1</v>
       </c>
@@ -3214,10 +3772,19 @@
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>1</v>
       </c>
@@ -3235,10 +3802,19 @@
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>1</v>
       </c>
@@ -3258,10 +3834,19 @@
         <v>49</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>1</v>
       </c>
@@ -3279,10 +3864,19 @@
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>1</v>
       </c>
@@ -3300,10 +3894,19 @@
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>1</v>
       </c>
@@ -3321,10 +3924,19 @@
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>1</v>
       </c>
@@ -3342,10 +3954,19 @@
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>1</v>
       </c>
@@ -3363,10 +3984,19 @@
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>1</v>
       </c>
@@ -3384,10 +4014,19 @@
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>1</v>
       </c>
@@ -3405,10 +4044,19 @@
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>1</v>
       </c>
@@ -3426,10 +4074,19 @@
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>1</v>
       </c>
@@ -3447,10 +4104,19 @@
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>1</v>
       </c>
@@ -3468,10 +4134,19 @@
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>1</v>
       </c>
@@ -3489,10 +4164,19 @@
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>1</v>
       </c>
@@ -3510,13 +4194,19 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>1</v>
       </c>
@@ -3534,10 +4224,19 @@
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>1</v>
       </c>
@@ -3555,10 +4254,19 @@
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>1</v>
       </c>
@@ -3576,10 +4284,19 @@
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>1</v>
       </c>
@@ -3597,10 +4314,19 @@
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>1</v>
       </c>
@@ -3618,10 +4344,19 @@
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>1</v>
       </c>
@@ -3639,10 +4374,19 @@
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>1</v>
       </c>
@@ -3660,10 +4404,19 @@
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>1</v>
       </c>
@@ -3681,10 +4434,19 @@
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>1</v>
       </c>
@@ -3702,10 +4464,19 @@
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>1</v>
       </c>
@@ -3723,10 +4494,19 @@
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>1</v>
       </c>
@@ -3744,10 +4524,19 @@
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>1</v>
       </c>
@@ -3765,10 +4554,19 @@
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>1</v>
       </c>
@@ -3786,10 +4584,19 @@
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>1</v>
       </c>
@@ -3807,10 +4614,19 @@
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>1</v>
       </c>
@@ -3828,10 +4644,19 @@
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>1</v>
       </c>
@@ -3851,10 +4676,19 @@
         <v>50</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>1</v>
       </c>
@@ -3872,10 +4706,19 @@
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>1</v>
       </c>
@@ -3893,10 +4736,19 @@
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>1</v>
       </c>
@@ -3914,10 +4766,19 @@
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>1</v>
       </c>
@@ -3935,13 +4796,19 @@
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>1</v>
       </c>
@@ -3959,10 +4826,19 @@
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>1</v>
       </c>
@@ -3980,10 +4856,19 @@
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>1</v>
       </c>
@@ -4001,10 +4886,19 @@
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>1</v>
       </c>
@@ -4022,10 +4916,19 @@
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>1</v>
       </c>
@@ -4043,10 +4946,19 @@
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>1</v>
       </c>
@@ -4064,10 +4976,19 @@
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>1</v>
       </c>
@@ -4085,10 +5006,19 @@
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>1</v>
       </c>
@@ -4108,10 +5038,19 @@
         <v>24</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>1</v>
       </c>
@@ -4129,10 +5068,19 @@
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>1</v>
       </c>
@@ -4150,10 +5098,19 @@
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>1</v>
       </c>
@@ -4173,10 +5130,19 @@
         <v>22</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>1</v>
       </c>
@@ -4194,10 +5160,19 @@
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>1</v>
       </c>
@@ -4215,10 +5190,19 @@
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>1</v>
       </c>
@@ -4238,10 +5222,19 @@
         <v>45</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>1</v>
       </c>
@@ -4261,10 +5254,19 @@
         <v>23</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>1</v>
       </c>
@@ -4284,10 +5286,19 @@
         <v>25</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>1</v>
       </c>
@@ -4307,10 +5318,19 @@
         <v>26</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>1</v>
       </c>
@@ -4328,10 +5348,19 @@
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>1</v>
       </c>
@@ -4349,10 +5378,19 @@
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>1</v>
       </c>
@@ -4370,10 +5408,19 @@
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>1</v>
       </c>
@@ -4391,10 +5438,19 @@
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>1</v>
       </c>
@@ -4414,10 +5470,19 @@
         <v>27</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>1</v>
       </c>
@@ -4437,10 +5502,19 @@
         <v>28</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>1</v>
       </c>
@@ -4458,10 +5532,19 @@
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>1</v>
       </c>
@@ -4479,10 +5562,19 @@
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>1</v>
       </c>
@@ -4500,10 +5592,19 @@
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>1</v>
       </c>
@@ -4523,10 +5624,19 @@
         <v>29</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>1</v>
       </c>
@@ -4544,10 +5654,19 @@
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>1</v>
       </c>
@@ -4565,10 +5684,19 @@
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>1</v>
       </c>
@@ -4586,10 +5714,19 @@
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>1</v>
       </c>
@@ -4607,10 +5744,19 @@
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>1</v>
       </c>
@@ -4628,13 +5774,19 @@
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>1</v>
       </c>
@@ -4652,10 +5804,19 @@
       </c>
       <c r="F131" s="10"/>
       <c r="G131" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>1</v>
       </c>
@@ -4675,10 +5836,19 @@
         <v>46</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>1</v>
       </c>
@@ -4696,10 +5866,19 @@
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>1</v>
       </c>
@@ -4717,10 +5896,19 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>1</v>
       </c>
@@ -4738,10 +5926,19 @@
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>1</v>
       </c>
@@ -4759,10 +5956,19 @@
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>1</v>
       </c>
@@ -4780,10 +5986,19 @@
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>1</v>
       </c>
@@ -4801,10 +6016,19 @@
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>1</v>
       </c>
@@ -4822,10 +6046,19 @@
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>1</v>
       </c>
@@ -4843,10 +6076,19 @@
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>1</v>
       </c>
@@ -4864,10 +6106,19 @@
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>1</v>
       </c>
@@ -4885,10 +6136,19 @@
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>1</v>
       </c>
@@ -4906,10 +6166,19 @@
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>1</v>
       </c>
@@ -4927,10 +6196,19 @@
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>1</v>
       </c>
@@ -4948,13 +6226,19 @@
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>1</v>
       </c>
@@ -4972,10 +6256,19 @@
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>1</v>
       </c>
@@ -4993,10 +6286,19 @@
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>1</v>
       </c>
@@ -5014,10 +6316,19 @@
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>1</v>
       </c>
@@ -5037,10 +6348,19 @@
         <v>31</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>1</v>
       </c>
@@ -5058,10 +6378,19 @@
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>1</v>
       </c>
@@ -5079,10 +6408,19 @@
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>1</v>
       </c>
@@ -5100,10 +6438,19 @@
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>1</v>
       </c>
@@ -5123,10 +6470,19 @@
         <v>32</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>1</v>
       </c>
@@ -5144,10 +6500,19 @@
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>1</v>
       </c>
@@ -5165,10 +6530,19 @@
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>1</v>
       </c>
@@ -5186,10 +6560,19 @@
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>1</v>
       </c>
@@ -5207,10 +6590,19 @@
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>1</v>
       </c>
@@ -5228,10 +6620,19 @@
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>1</v>
       </c>
@@ -5249,10 +6650,19 @@
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>1</v>
       </c>
@@ -5270,10 +6680,19 @@
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>1</v>
       </c>
@@ -5291,10 +6710,19 @@
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>1</v>
       </c>
@@ -5314,13 +6742,19 @@
         <v>44</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>1</v>
       </c>
@@ -5338,10 +6772,19 @@
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>1</v>
       </c>
@@ -5361,10 +6804,19 @@
         <v>51</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>1</v>
       </c>
@@ -5382,10 +6834,19 @@
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>1</v>
       </c>
@@ -5403,10 +6864,19 @@
       </c>
       <c r="F166" s="10"/>
       <c r="G166" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>1</v>
       </c>
@@ -5424,10 +6894,19 @@
       </c>
       <c r="F167" s="10"/>
       <c r="G167" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>1</v>
       </c>
@@ -5445,10 +6924,19 @@
       </c>
       <c r="F168" s="10"/>
       <c r="G168" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>1</v>
       </c>
@@ -5468,13 +6956,19 @@
         <v>52</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169" s="1">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>1</v>
       </c>
@@ -5492,10 +6986,19 @@
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>1</v>
       </c>
@@ -5513,10 +7016,19 @@
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>1</v>
       </c>
@@ -5534,10 +7046,19 @@
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0</v>
+      </c>
+      <c r="I172" s="1">
+        <v>0</v>
+      </c>
+      <c r="J172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <v>1</v>
       </c>
@@ -5555,10 +7076,19 @@
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+      <c r="I173" s="1">
+        <v>0</v>
+      </c>
+      <c r="J173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>1</v>
       </c>
@@ -5576,10 +7106,19 @@
       </c>
       <c r="F174" s="10"/>
       <c r="G174" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0</v>
+      </c>
+      <c r="I174" s="1">
+        <v>1</v>
+      </c>
+      <c r="J174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>1</v>
       </c>
@@ -5597,10 +7136,19 @@
       </c>
       <c r="F175" s="10"/>
       <c r="G175" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0</v>
+      </c>
+      <c r="I175" s="1">
+        <v>0</v>
+      </c>
+      <c r="J175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>1</v>
       </c>
@@ -5620,10 +7168,19 @@
         <v>35</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0</v>
+      </c>
+      <c r="I176" s="1">
+        <v>0</v>
+      </c>
+      <c r="J176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>1</v>
       </c>
@@ -5641,10 +7198,19 @@
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
+      <c r="I177" s="1">
+        <v>0</v>
+      </c>
+      <c r="J177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>1</v>
       </c>
@@ -5664,10 +7230,19 @@
         <v>14</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
+      <c r="I178" s="1">
+        <v>0</v>
+      </c>
+      <c r="J178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>1</v>
       </c>
@@ -5685,10 +7260,19 @@
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0</v>
+      </c>
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+      <c r="J179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>1</v>
       </c>
@@ -5706,10 +7290,19 @@
       </c>
       <c r="F180" s="10"/>
       <c r="G180" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0</v>
+      </c>
+      <c r="I180" s="1">
+        <v>0</v>
+      </c>
+      <c r="J180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <v>1</v>
       </c>
@@ -5727,10 +7320,19 @@
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0</v>
+      </c>
+      <c r="I181" s="1">
+        <v>0</v>
+      </c>
+      <c r="J181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <v>1</v>
       </c>
@@ -5748,10 +7350,19 @@
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
+      </c>
+      <c r="I182" s="1">
+        <v>0</v>
+      </c>
+      <c r="J182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>1</v>
       </c>
@@ -5769,10 +7380,19 @@
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0</v>
+      </c>
+      <c r="J183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>1</v>
       </c>
@@ -5790,13 +7410,19 @@
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184" s="1">
+        <v>0</v>
+      </c>
+      <c r="J184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>1</v>
       </c>
@@ -5816,10 +7442,19 @@
         <v>36</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0</v>
+      </c>
+      <c r="I185" s="1">
+        <v>0</v>
+      </c>
+      <c r="J185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>1</v>
       </c>
@@ -5837,10 +7472,19 @@
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1">
+        <v>0</v>
+      </c>
+      <c r="J186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>1</v>
       </c>
@@ -5858,10 +7502,19 @@
       </c>
       <c r="F187" s="10"/>
       <c r="G187" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H187" s="1">
+        <v>0</v>
+      </c>
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+      <c r="J187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>1</v>
       </c>
@@ -5881,10 +7534,19 @@
         <v>38</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+      <c r="J188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>1</v>
       </c>
@@ -5902,10 +7564,19 @@
       </c>
       <c r="F189" s="10"/>
       <c r="G189" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0</v>
+      </c>
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+      <c r="J189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>1</v>
       </c>
@@ -5923,10 +7594,19 @@
       </c>
       <c r="F190" s="10"/>
       <c r="G190" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0</v>
+      </c>
+      <c r="I190" s="1">
+        <v>0</v>
+      </c>
+      <c r="J190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>1</v>
       </c>
@@ -5946,10 +7626,19 @@
         <v>37</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0</v>
+      </c>
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+      <c r="J191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>1</v>
       </c>
@@ -5969,13 +7658,19 @@
         <v>14</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+      <c r="J192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>1</v>
       </c>
@@ -5993,10 +7688,19 @@
       </c>
       <c r="F193" s="10"/>
       <c r="G193" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0</v>
+      </c>
+      <c r="I193" s="1">
+        <v>0</v>
+      </c>
+      <c r="J193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>1</v>
       </c>
@@ -6014,10 +7718,19 @@
       </c>
       <c r="F194" s="10"/>
       <c r="G194" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H194" s="1">
+        <v>0</v>
+      </c>
+      <c r="I194" s="1">
+        <v>0</v>
+      </c>
+      <c r="J194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>1</v>
       </c>
@@ -6035,10 +7748,19 @@
       </c>
       <c r="F195" s="10"/>
       <c r="G195" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0</v>
+      </c>
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+      <c r="J195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>1</v>
       </c>
@@ -6056,10 +7778,19 @@
       </c>
       <c r="F196" s="10"/>
       <c r="G196" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0</v>
+      </c>
+      <c r="J196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>1</v>
       </c>
@@ -6077,10 +7808,19 @@
       </c>
       <c r="F197" s="10"/>
       <c r="G197" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
+      <c r="I197" s="1">
+        <v>0</v>
+      </c>
+      <c r="J197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>1</v>
       </c>
@@ -6098,10 +7838,19 @@
       </c>
       <c r="F198" s="10"/>
       <c r="G198" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0</v>
+      </c>
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+      <c r="J198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>1</v>
       </c>
@@ -6119,10 +7868,19 @@
       </c>
       <c r="F199" s="10"/>
       <c r="G199" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="I199" s="1">
+        <v>0</v>
+      </c>
+      <c r="J199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>1</v>
       </c>
@@ -6142,10 +7900,19 @@
         <v>41</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+      <c r="I200" s="1">
+        <v>0</v>
+      </c>
+      <c r="J200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>1</v>
       </c>
@@ -6163,10 +7930,19 @@
       </c>
       <c r="F201" s="10"/>
       <c r="G201" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+      <c r="J201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>1</v>
       </c>
@@ -6186,10 +7962,19 @@
         <v>42</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+      <c r="I202" s="1">
+        <v>0</v>
+      </c>
+      <c r="J202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>1</v>
       </c>
@@ -6207,10 +7992,19 @@
       </c>
       <c r="F203" s="10"/>
       <c r="G203" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+      <c r="I203" s="1">
+        <v>0</v>
+      </c>
+      <c r="J203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>1</v>
       </c>
@@ -6228,10 +8022,19 @@
       </c>
       <c r="F204" s="10"/>
       <c r="G204" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0</v>
+      </c>
+      <c r="I204" s="1">
+        <v>0</v>
+      </c>
+      <c r="J204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>1</v>
       </c>
@@ -6249,10 +8052,19 @@
       </c>
       <c r="F205" s="10"/>
       <c r="G205" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0</v>
+      </c>
+      <c r="I205" s="1">
+        <v>0</v>
+      </c>
+      <c r="J205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>1</v>
       </c>
@@ -6270,13 +8082,19 @@
       </c>
       <c r="F206" s="10"/>
       <c r="G206" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I206" s="1">
+        <v>0</v>
+      </c>
+      <c r="J206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>1</v>
       </c>
@@ -6294,10 +8112,19 @@
       </c>
       <c r="F207" s="10"/>
       <c r="G207" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0</v>
+      </c>
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+      <c r="J207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>1</v>
       </c>
@@ -6315,10 +8142,19 @@
       </c>
       <c r="F208" s="10"/>
       <c r="G208" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0</v>
+      </c>
+      <c r="I208" s="1">
+        <v>0</v>
+      </c>
+      <c r="J208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>1</v>
       </c>
@@ -6336,10 +8172,19 @@
       </c>
       <c r="F209" s="10"/>
       <c r="G209" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+      <c r="J209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>1</v>
       </c>
@@ -6357,13 +8202,19 @@
       </c>
       <c r="F210" s="10"/>
       <c r="G210" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H210" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+      <c r="J210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>1</v>
       </c>
@@ -6381,10 +8232,19 @@
       </c>
       <c r="F211" s="10"/>
       <c r="G211" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0</v>
+      </c>
+      <c r="I211" s="1">
+        <v>0</v>
+      </c>
+      <c r="J211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>1</v>
       </c>
@@ -6402,10 +8262,19 @@
       </c>
       <c r="F212" s="10"/>
       <c r="G212" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0</v>
+      </c>
+      <c r="I212" s="1">
+        <v>0</v>
+      </c>
+      <c r="J212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>1</v>
       </c>
@@ -6423,10 +8292,19 @@
       </c>
       <c r="F213" s="10"/>
       <c r="G213" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
+      <c r="I213" s="1">
+        <v>0</v>
+      </c>
+      <c r="J213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>1</v>
       </c>
@@ -6444,10 +8322,19 @@
       </c>
       <c r="F214" s="10"/>
       <c r="G214" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0</v>
+      </c>
+      <c r="I214" s="1">
+        <v>0</v>
+      </c>
+      <c r="J214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>1</v>
       </c>
@@ -6465,10 +8352,19 @@
       </c>
       <c r="F215" s="10"/>
       <c r="G215" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0</v>
+      </c>
+      <c r="I215" s="1">
+        <v>0</v>
+      </c>
+      <c r="J215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>1</v>
       </c>
@@ -6486,10 +8382,19 @@
       </c>
       <c r="F216" s="10"/>
       <c r="G216" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0</v>
+      </c>
+      <c r="J216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>1</v>
       </c>
@@ -6509,13 +8414,19 @@
         <v>43</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H217" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I217" s="1">
+        <v>0</v>
+      </c>
+      <c r="J217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>1</v>
       </c>
@@ -6533,10 +8444,19 @@
       </c>
       <c r="F218" s="10"/>
       <c r="G218" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0</v>
+      </c>
+      <c r="I218" s="1">
+        <v>0</v>
+      </c>
+      <c r="J218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>1</v>
       </c>
@@ -6554,10 +8474,19 @@
       </c>
       <c r="F219" s="10"/>
       <c r="G219" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
+      <c r="I219" s="1">
+        <v>0</v>
+      </c>
+      <c r="J219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>1</v>
       </c>
@@ -6575,10 +8504,19 @@
       </c>
       <c r="F220" s="10"/>
       <c r="G220" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0</v>
+      </c>
+      <c r="I220" s="1">
+        <v>0</v>
+      </c>
+      <c r="J220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>1</v>
       </c>
@@ -6596,10 +8534,19 @@
       </c>
       <c r="F221" s="10"/>
       <c r="G221" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0</v>
+      </c>
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+      <c r="J221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>1</v>
       </c>
@@ -6617,10 +8564,19 @@
       </c>
       <c r="F222" s="10"/>
       <c r="G222" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+      <c r="J222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>1</v>
       </c>
@@ -6638,10 +8594,19 @@
       </c>
       <c r="F223" s="10"/>
       <c r="G223" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0</v>
+      </c>
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+      <c r="J223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>1</v>
       </c>
@@ -6659,10 +8624,19 @@
       </c>
       <c r="F224" s="10"/>
       <c r="G224" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H224" s="1">
+        <v>0</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+      <c r="J224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>1</v>
       </c>
@@ -6680,10 +8654,19 @@
       </c>
       <c r="F225" s="10"/>
       <c r="G225" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+      <c r="J225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>1</v>
       </c>
@@ -6701,10 +8684,19 @@
       </c>
       <c r="F226" s="10"/>
       <c r="G226" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0</v>
+      </c>
+      <c r="I226" s="1">
+        <v>0</v>
+      </c>
+      <c r="J226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>1</v>
       </c>
@@ -6722,10 +8714,19 @@
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H227" s="1">
+        <v>0</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+      <c r="J227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>1</v>
       </c>
@@ -6743,10 +8744,19 @@
       </c>
       <c r="F228" s="10"/>
       <c r="G228" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+      <c r="J228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>1</v>
       </c>
@@ -6764,10 +8774,19 @@
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <v>1</v>
       </c>
@@ -6785,10 +8804,19 @@
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+      <c r="J230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <v>1</v>
       </c>
@@ -6806,10 +8834,19 @@
       </c>
       <c r="F231" s="10"/>
       <c r="G231" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+      <c r="J231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <v>1</v>
       </c>
@@ -6823,14 +8860,23 @@
         <v>3</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="F232" s="10"/>
       <c r="G232" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0</v>
+      </c>
+      <c r="J232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <v>1</v>
       </c>
@@ -6844,14 +8890,23 @@
         <v>3</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F233" s="10"/>
       <c r="G233" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0</v>
+      </c>
+      <c r="I233" s="1">
+        <v>0</v>
+      </c>
+      <c r="J233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <v>1</v>
       </c>
@@ -6865,14 +8920,23 @@
         <v>3</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F234" s="10"/>
       <c r="G234" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0</v>
+      </c>
+      <c r="J234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <v>1</v>
       </c>
@@ -6890,10 +8954,19 @@
       </c>
       <c r="F235" s="10"/>
       <c r="G235" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H235" s="1">
+        <v>0</v>
+      </c>
+      <c r="I235" s="1">
+        <v>0</v>
+      </c>
+      <c r="J235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <v>1</v>
       </c>
@@ -6911,10 +8984,19 @@
       </c>
       <c r="F236" s="10"/>
       <c r="G236" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H236" s="1">
+        <v>0</v>
+      </c>
+      <c r="I236" s="1">
+        <v>0</v>
+      </c>
+      <c r="J236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>1</v>
       </c>
@@ -6928,14 +9010,23 @@
         <v>4</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F237" s="10"/>
       <c r="G237" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H237" s="1">
+        <v>0</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0</v>
+      </c>
+      <c r="J237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <v>1</v>
       </c>
@@ -6949,14 +9040,23 @@
         <v>4</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F238" s="10"/>
       <c r="G238" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H238" s="1">
+        <v>0</v>
+      </c>
+      <c r="I238" s="1">
+        <v>0</v>
+      </c>
+      <c r="J238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <v>1</v>
       </c>
@@ -6970,14 +9070,23 @@
         <v>4</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F239" s="10"/>
       <c r="G239" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H239" s="1">
+        <v>0</v>
+      </c>
+      <c r="I239" s="1">
+        <v>0</v>
+      </c>
+      <c r="J239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <v>1</v>
       </c>
@@ -6991,14 +9100,23 @@
         <v>4</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F240" s="10"/>
       <c r="G240" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H240" s="1">
+        <v>0</v>
+      </c>
+      <c r="I240" s="1">
+        <v>0</v>
+      </c>
+      <c r="J240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <v>1</v>
       </c>
@@ -7012,14 +9130,23 @@
         <v>4</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F241" s="10"/>
       <c r="G241" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H241" s="1">
+        <v>0</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0</v>
+      </c>
+      <c r="J241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <v>1</v>
       </c>
@@ -7033,14 +9160,23 @@
         <v>4</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F242" s="10"/>
       <c r="G242" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H242" s="1">
+        <v>0</v>
+      </c>
+      <c r="I242" s="1">
+        <v>0</v>
+      </c>
+      <c r="J242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <v>1</v>
       </c>
@@ -7054,14 +9190,23 @@
         <v>4</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F243" s="10"/>
       <c r="G243" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H243" s="1">
+        <v>0</v>
+      </c>
+      <c r="I243" s="1">
+        <v>0</v>
+      </c>
+      <c r="J243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <v>1</v>
       </c>
@@ -7075,14 +9220,23 @@
         <v>4</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F244" s="10"/>
       <c r="G244" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H244" s="1">
+        <v>0</v>
+      </c>
+      <c r="I244" s="1">
+        <v>0</v>
+      </c>
+      <c r="J244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <v>1</v>
       </c>
@@ -7096,14 +9250,23 @@
         <v>4</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F245" s="10"/>
       <c r="G245" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H245" s="1">
+        <v>0</v>
+      </c>
+      <c r="I245" s="1">
+        <v>0</v>
+      </c>
+      <c r="J245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <v>1</v>
       </c>
@@ -7117,14 +9280,23 @@
         <v>4</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F246" s="10"/>
       <c r="G246" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H246" s="1">
+        <v>0</v>
+      </c>
+      <c r="I246" s="1">
+        <v>0</v>
+      </c>
+      <c r="J246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <v>1</v>
       </c>
@@ -7138,14 +9310,23 @@
         <v>4</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F247" s="10"/>
       <c r="G247" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H247" s="1">
+        <v>0</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0</v>
+      </c>
+      <c r="J247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <v>1</v>
       </c>
@@ -7159,17 +9340,23 @@
         <v>4</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F248" s="10"/>
       <c r="G248" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H248" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I248" s="1">
+        <v>0</v>
+      </c>
+      <c r="J248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <v>1</v>
       </c>
@@ -7183,14 +9370,23 @@
         <v>4</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F249" s="10"/>
       <c r="G249" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0</v>
+      </c>
+      <c r="I249" s="1">
+        <v>0</v>
+      </c>
+      <c r="J249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <v>1</v>
       </c>
@@ -7204,14 +9400,23 @@
         <v>4</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F250" s="10"/>
       <c r="G250" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H250" s="1">
+        <v>0</v>
+      </c>
+      <c r="I250" s="1">
+        <v>0</v>
+      </c>
+      <c r="J250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <v>1</v>
       </c>
@@ -7225,14 +9430,23 @@
         <v>4</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F251" s="10"/>
       <c r="G251" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H251" s="1">
+        <v>0</v>
+      </c>
+      <c r="I251" s="1">
+        <v>0</v>
+      </c>
+      <c r="J251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <v>1</v>
       </c>
@@ -7246,14 +9460,23 @@
         <v>3</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F252" s="10"/>
       <c r="G252" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H252" s="1">
+        <v>0</v>
+      </c>
+      <c r="I252" s="1">
+        <v>0</v>
+      </c>
+      <c r="J252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <v>1</v>
       </c>
@@ -7267,14 +9490,23 @@
         <v>3</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F253" s="10"/>
       <c r="G253" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H253" s="1">
+        <v>0</v>
+      </c>
+      <c r="I253" s="1">
+        <v>0</v>
+      </c>
+      <c r="J253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <v>1</v>
       </c>
@@ -7288,17 +9520,23 @@
         <v>3</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F254" s="10"/>
       <c r="G254" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H254" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I254" s="1">
+        <v>0</v>
+      </c>
+      <c r="J254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <v>1</v>
       </c>
@@ -7312,14 +9550,23 @@
         <v>3</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F255" s="10"/>
       <c r="G255" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H255" s="1">
+        <v>0</v>
+      </c>
+      <c r="I255" s="1">
+        <v>0</v>
+      </c>
+      <c r="J255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <v>1</v>
       </c>
@@ -7333,14 +9580,23 @@
         <v>3</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F256" s="10"/>
       <c r="G256" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H256" s="1">
+        <v>0</v>
+      </c>
+      <c r="I256" s="1">
+        <v>0</v>
+      </c>
+      <c r="J256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <v>1</v>
       </c>
@@ -7354,14 +9610,23 @@
         <v>3</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F257" s="10"/>
       <c r="G257" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H257" s="1">
+        <v>0</v>
+      </c>
+      <c r="I257" s="1">
+        <v>0</v>
+      </c>
+      <c r="J257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <v>1</v>
       </c>
@@ -7375,14 +9640,23 @@
         <v>3</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F258" s="10"/>
       <c r="G258" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H258" s="1">
+        <v>0</v>
+      </c>
+      <c r="I258" s="1">
+        <v>0</v>
+      </c>
+      <c r="J258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <v>1</v>
       </c>
@@ -7396,14 +9670,23 @@
         <v>3</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F259" s="10"/>
       <c r="G259" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H259" s="1">
+        <v>0</v>
+      </c>
+      <c r="I259" s="1">
+        <v>0</v>
+      </c>
+      <c r="J259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <v>1</v>
       </c>
@@ -7417,14 +9700,23 @@
         <v>3</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F260" s="10"/>
       <c r="G260" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H260" s="1">
+        <v>0</v>
+      </c>
+      <c r="I260" s="1">
+        <v>0</v>
+      </c>
+      <c r="J260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <v>1</v>
       </c>
@@ -7438,14 +9730,23 @@
         <v>3</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F261" s="10"/>
       <c r="G261" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H261" s="1">
+        <v>0</v>
+      </c>
+      <c r="I261" s="1">
+        <v>0</v>
+      </c>
+      <c r="J261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <v>1</v>
       </c>
@@ -7459,14 +9760,23 @@
         <v>3</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F262" s="10"/>
       <c r="G262" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H262" s="1">
+        <v>0</v>
+      </c>
+      <c r="I262" s="1">
+        <v>0</v>
+      </c>
+      <c r="J262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <v>1</v>
       </c>
@@ -7480,14 +9790,23 @@
         <v>3</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F263" s="10"/>
       <c r="G263" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H263" s="1">
+        <v>0</v>
+      </c>
+      <c r="I263" s="1">
+        <v>0</v>
+      </c>
+      <c r="J263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <v>1</v>
       </c>
@@ -7505,10 +9824,19 @@
       </c>
       <c r="F264" s="10"/>
       <c r="G264" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H264" s="1">
+        <v>0</v>
+      </c>
+      <c r="I264" s="1">
+        <v>0</v>
+      </c>
+      <c r="J264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <v>1</v>
       </c>
@@ -7522,14 +9850,23 @@
         <v>3</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F265" s="10"/>
       <c r="G265" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H265" s="1">
+        <v>0</v>
+      </c>
+      <c r="I265" s="1">
+        <v>0</v>
+      </c>
+      <c r="J265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <v>1</v>
       </c>
@@ -7543,14 +9880,23 @@
         <v>4</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F266" s="10"/>
       <c r="G266" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H266" s="1">
+        <v>0</v>
+      </c>
+      <c r="I266" s="1">
+        <v>0</v>
+      </c>
+      <c r="J266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <v>1</v>
       </c>
@@ -7564,14 +9910,23 @@
         <v>4</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F267" s="10"/>
       <c r="G267" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H267" s="1">
+        <v>0</v>
+      </c>
+      <c r="I267" s="1">
+        <v>0</v>
+      </c>
+      <c r="J267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <v>1</v>
       </c>
@@ -7585,14 +9940,23 @@
         <v>4</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F268" s="10"/>
       <c r="G268" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H268" s="1">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1">
+        <v>0</v>
+      </c>
+      <c r="J268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <v>1</v>
       </c>
@@ -7606,14 +9970,23 @@
         <v>4</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F269" s="10"/>
       <c r="G269" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H269" s="1">
+        <v>0</v>
+      </c>
+      <c r="I269" s="1">
+        <v>0</v>
+      </c>
+      <c r="J269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <v>1</v>
       </c>
@@ -7627,14 +10000,23 @@
         <v>4</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F270" s="10"/>
       <c r="G270" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H270" s="1">
+        <v>0</v>
+      </c>
+      <c r="I270" s="1">
+        <v>0</v>
+      </c>
+      <c r="J270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <v>1</v>
       </c>
@@ -7648,14 +10030,23 @@
         <v>4</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F271" s="10"/>
       <c r="G271" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H271" s="1">
+        <v>0</v>
+      </c>
+      <c r="I271" s="1">
+        <v>0</v>
+      </c>
+      <c r="J271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <v>1</v>
       </c>
@@ -7669,14 +10060,23 @@
         <v>4</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F272" s="10"/>
       <c r="G272" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H272" s="1">
+        <v>0</v>
+      </c>
+      <c r="I272" s="1">
+        <v>0</v>
+      </c>
+      <c r="J272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <v>1</v>
       </c>
@@ -7694,10 +10094,19 @@
       </c>
       <c r="F273" s="10"/>
       <c r="G273" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H273" s="1">
+        <v>0</v>
+      </c>
+      <c r="I273" s="1">
+        <v>0</v>
+      </c>
+      <c r="J273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <v>1</v>
       </c>
@@ -7715,10 +10124,19 @@
       </c>
       <c r="F274" s="10"/>
       <c r="G274" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H274" s="1">
+        <v>0</v>
+      </c>
+      <c r="I274" s="1">
+        <v>0</v>
+      </c>
+      <c r="J274" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <v>1</v>
       </c>
@@ -7732,14 +10150,23 @@
         <v>4</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F275" s="10"/>
       <c r="G275" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H275" s="1">
+        <v>0</v>
+      </c>
+      <c r="I275" s="1">
+        <v>0</v>
+      </c>
+      <c r="J275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <v>1</v>
       </c>
@@ -7753,14 +10180,23 @@
         <v>4</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F276" s="10"/>
       <c r="G276" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H276" s="1">
+        <v>0</v>
+      </c>
+      <c r="I276" s="1">
+        <v>0</v>
+      </c>
+      <c r="J276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <v>1</v>
       </c>
@@ -7774,17 +10210,23 @@
         <v>4</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F277" s="10"/>
       <c r="G277" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H277" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I277" s="1">
+        <v>0</v>
+      </c>
+      <c r="J277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <v>1</v>
       </c>
@@ -7798,14 +10240,23 @@
         <v>4</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F278" s="10"/>
       <c r="G278" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H278" s="1">
+        <v>0</v>
+      </c>
+      <c r="I278" s="1">
+        <v>0</v>
+      </c>
+      <c r="J278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <v>1</v>
       </c>
@@ -7819,14 +10270,23 @@
         <v>4</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H279" s="1">
+        <v>0</v>
+      </c>
+      <c r="I279" s="1">
+        <v>0</v>
+      </c>
+      <c r="J279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <v>1</v>
       </c>
@@ -7840,14 +10300,23 @@
         <v>3</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F280" s="10"/>
       <c r="G280" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H280" s="1">
+        <v>0</v>
+      </c>
+      <c r="I280" s="1">
+        <v>0</v>
+      </c>
+      <c r="J280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <v>1</v>
       </c>
@@ -7861,14 +10330,23 @@
         <v>3</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F281" s="10"/>
       <c r="G281" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H281" s="1">
+        <v>0</v>
+      </c>
+      <c r="I281" s="1">
+        <v>0</v>
+      </c>
+      <c r="J281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <v>1</v>
       </c>
@@ -7882,14 +10360,23 @@
         <v>3</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F282" s="10"/>
       <c r="G282" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H282" s="1">
+        <v>0</v>
+      </c>
+      <c r="I282" s="1">
+        <v>0</v>
+      </c>
+      <c r="J282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <v>1</v>
       </c>
@@ -7903,14 +10390,23 @@
         <v>3</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F283" s="10"/>
       <c r="G283" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H283" s="1">
+        <v>0</v>
+      </c>
+      <c r="I283" s="1">
+        <v>0</v>
+      </c>
+      <c r="J283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <v>1</v>
       </c>
@@ -7924,14 +10420,23 @@
         <v>3</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F284" s="10"/>
       <c r="G284" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H284" s="1">
+        <v>0</v>
+      </c>
+      <c r="I284" s="1">
+        <v>0</v>
+      </c>
+      <c r="J284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <v>1</v>
       </c>
@@ -7945,14 +10450,23 @@
         <v>3</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F285" s="10"/>
       <c r="G285" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H285" s="1">
+        <v>0</v>
+      </c>
+      <c r="I285" s="1">
+        <v>0</v>
+      </c>
+      <c r="J285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <v>1</v>
       </c>
@@ -7966,14 +10480,23 @@
         <v>3</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F286" s="10"/>
       <c r="G286" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H286" s="1">
+        <v>0</v>
+      </c>
+      <c r="I286" s="1">
+        <v>0</v>
+      </c>
+      <c r="J286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <v>1</v>
       </c>
@@ -7987,17 +10510,23 @@
         <v>3</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F287" s="10"/>
       <c r="G287" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H287" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I287" s="1">
+        <v>0</v>
+      </c>
+      <c r="J287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <v>1</v>
       </c>
@@ -8011,14 +10540,23 @@
         <v>3</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F288" s="10"/>
       <c r="G288" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H288" s="1">
+        <v>0</v>
+      </c>
+      <c r="I288" s="1">
+        <v>0</v>
+      </c>
+      <c r="J288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <v>1</v>
       </c>
@@ -8032,14 +10570,23 @@
         <v>3</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F289" s="10"/>
       <c r="G289" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H289" s="1">
+        <v>0</v>
+      </c>
+      <c r="I289" s="1">
+        <v>0</v>
+      </c>
+      <c r="J289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <v>1</v>
       </c>
@@ -8053,14 +10600,23 @@
         <v>3</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F290" s="10"/>
       <c r="G290" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="H290" s="1">
+        <v>0</v>
+      </c>
+      <c r="I290" s="1">
+        <v>0</v>
+      </c>
+      <c r="J290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <v>1</v>
       </c>
@@ -8074,14 +10630,23 @@
         <v>3</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F291" s="10"/>
       <c r="G291" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H291" s="1">
+        <v>0</v>
+      </c>
+      <c r="I291" s="1">
+        <v>0</v>
+      </c>
+      <c r="J291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <v>1</v>
       </c>
@@ -8095,14 +10660,23 @@
         <v>3</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F292" s="10"/>
       <c r="G292" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H292" s="1">
+        <v>0</v>
+      </c>
+      <c r="I292" s="1">
+        <v>0</v>
+      </c>
+      <c r="J292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
         <v>1</v>
       </c>
@@ -8116,14 +10690,23 @@
         <v>3</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F293" s="10"/>
       <c r="G293" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="H293" s="1">
+        <v>0</v>
+      </c>
+      <c r="I293" s="1">
+        <v>1</v>
+      </c>
+      <c r="J293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
         <v>1</v>
       </c>
@@ -8141,7 +10724,16 @@
       </c>
       <c r="F294" s="10"/>
       <c r="G294" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="H294" s="1">
+        <v>0</v>
+      </c>
+      <c r="I294" s="1">
+        <v>0</v>
+      </c>
+      <c r="J294" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
